--- a/data/clean/output_data.xlsx
+++ b/data/clean/output_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV217"/>
+  <dimension ref="A1:AV235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>11702</v>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
@@ -756,7 +758,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC2" t="n">
         <v>39763.72</v>
@@ -774,7 +776,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ2" t="b">
         <v>0</v>
       </c>
@@ -862,7 +866,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>11702</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
@@ -900,7 +906,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC3" t="n">
         <v>39763.72</v>
@@ -918,7 +924,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ3" t="b">
         <v>0</v>
       </c>
@@ -1006,7 +1014,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>11702</v>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
@@ -1044,7 +1054,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC4" t="n">
         <v>39763.72</v>
@@ -1062,7 +1072,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ4" t="b">
         <v>0</v>
       </c>
@@ -1139,7 +1151,9 @@
       <c r="M5" t="n">
         <v>10598.02</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>206039.04</v>
+      </c>
       <c r="O5" t="n">
         <v>2021</v>
       </c>
@@ -1152,7 +1166,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>11702</v>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
@@ -1190,7 +1206,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC5" t="n">
         <v>39763.72</v>
@@ -1208,7 +1224,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ5" t="b">
         <v>0</v>
       </c>
@@ -1298,7 +1316,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>11702</v>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
@@ -1336,7 +1356,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC6" t="n">
         <v>39763.72</v>
@@ -1354,7 +1374,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ6" t="b">
         <v>0</v>
       </c>
@@ -1442,7 +1464,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>11702</v>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
@@ -1480,7 +1504,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC7" t="n">
         <v>39763.72</v>
@@ -1498,7 +1522,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ7" t="b">
         <v>0</v>
       </c>
@@ -1568,7 +1594,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>11702</v>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
@@ -1606,7 +1634,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC8" t="n">
         <v>39763.72</v>
@@ -1624,7 +1652,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ8" t="b">
         <v>0</v>
       </c>
@@ -1712,7 +1742,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>11702</v>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
@@ -1750,7 +1782,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC9" t="n">
         <v>39763.72</v>
@@ -1768,7 +1800,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ9" t="b">
         <v>0</v>
       </c>
@@ -1856,7 +1890,9 @@
           <t>G4791</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>11702</v>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
@@ -1894,7 +1930,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>5352870000</v>
+        <v>5352.9</v>
       </c>
       <c r="AC10" t="n">
         <v>39763.72</v>
@@ -1912,7 +1948,9 @@
           <t>LU2237380790</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ10" t="b">
         <v>0</v>
       </c>
@@ -1981,7 +2019,7 @@
         <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="L11" t="n">
         <v>4295.1</v>
@@ -1991,7 +2029,7 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P11" t="n">
         <v>2025</v>
@@ -2002,7 +2040,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>56963</v>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
@@ -2040,7 +2080,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC11" t="n">
         <v>5788.57</v>
@@ -2058,7 +2098,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ11" t="b">
         <v>0</v>
       </c>
@@ -2068,7 +2110,7 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -2096,13 +2138,13 @@
         <v>0.609039384364211</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.16</v>
+        <v>0.45</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.16</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
@@ -2147,12 +2189,8 @@
       <c r="K12" t="n">
         <v>2019</v>
       </c>
-      <c r="L12" t="n">
-        <v>4295.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>63665.6</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>2019</v>
@@ -2166,7 +2204,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>56963</v>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
@@ -2204,7 +2244,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC12" t="n">
         <v>5788.57</v>
@@ -2222,7 +2262,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ12" t="b">
         <v>0</v>
       </c>
@@ -2312,7 +2354,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>56963</v>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
@@ -2350,7 +2394,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC13" t="n">
         <v>5788.57</v>
@@ -2368,7 +2412,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ13" t="b">
         <v>0</v>
       </c>
@@ -2437,7 +2483,7 @@
         <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="L14" t="n">
         <v>4295.1</v>
@@ -2447,7 +2493,7 @@
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P14" t="n">
         <v>2030</v>
@@ -2458,7 +2504,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>56963</v>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
@@ -2496,7 +2544,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC14" t="n">
         <v>5788.57</v>
@@ -2514,7 +2562,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ14" t="b">
         <v>0</v>
       </c>
@@ -2524,7 +2574,7 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>0.07272727272727274</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
@@ -2552,13 +2602,13 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2603,12 +2653,8 @@
       <c r="K15" t="n">
         <v>2019</v>
       </c>
-      <c r="L15" t="n">
-        <v>4295.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>63665.6</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
         <v>2019</v>
@@ -2622,7 +2668,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>56963</v>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -2660,7 +2708,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC15" t="n">
         <v>5788.57</v>
@@ -2678,7 +2726,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ15" t="b">
         <v>0</v>
       </c>
@@ -2768,7 +2818,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>56963</v>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -2806,7 +2858,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC16" t="n">
         <v>5788.57</v>
@@ -2824,7 +2876,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ16" t="b">
         <v>0</v>
       </c>
@@ -2894,7 +2948,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>56963</v>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -2932,7 +2988,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC17" t="n">
         <v>5788.57</v>
@@ -2950,7 +3006,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ17" t="b">
         <v>0</v>
       </c>
@@ -3038,7 +3096,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>56963</v>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -3076,7 +3136,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC18" t="n">
         <v>5788.57</v>
@@ -3094,7 +3154,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ18" t="b">
         <v>0</v>
       </c>
@@ -3182,7 +3244,9 @@
           <t>C1520</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>56963</v>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -3220,7 +3284,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>5638600000</v>
+        <v>5889.5</v>
       </c>
       <c r="AC19" t="n">
         <v>5788.57</v>
@@ -3238,7 +3302,9 @@
           <t>PLCCC0000016</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ19" t="b">
         <v>0</v>
       </c>
@@ -3308,7 +3374,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -3346,7 +3414,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC20" t="n">
         <v>27880</v>
@@ -3364,7 +3432,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ20" t="b">
         <v>0</v>
       </c>
@@ -3452,7 +3522,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -3490,7 +3562,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC21" t="n">
         <v>27880</v>
@@ -3508,7 +3580,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ21" t="b">
         <v>0</v>
       </c>
@@ -3596,7 +3670,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -3634,7 +3710,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC22" t="n">
         <v>27880</v>
@@ -3652,7 +3728,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ22" t="b">
         <v>0</v>
       </c>
@@ -3742,7 +3820,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -3780,7 +3860,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC23" t="n">
         <v>27880</v>
@@ -3798,7 +3878,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr"/>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ23" t="b">
         <v>0</v>
       </c>
@@ -3888,7 +3970,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -3926,7 +4010,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC24" t="n">
         <v>27880</v>
@@ -3944,7 +4028,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ24" t="b">
         <v>0</v>
       </c>
@@ -4032,7 +4118,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -4070,7 +4158,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC25" t="n">
         <v>27880</v>
@@ -4088,7 +4176,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ25" t="b">
         <v>0</v>
       </c>
@@ -4178,7 +4268,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -4216,7 +4308,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC26" t="n">
         <v>27880</v>
@@ -4234,7 +4326,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ26" t="b">
         <v>0</v>
       </c>
@@ -4324,7 +4418,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -4362,7 +4458,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC27" t="n">
         <v>27880</v>
@@ -4380,7 +4476,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ27" t="b">
         <v>0</v>
       </c>
@@ -4468,7 +4566,9 @@
           <t>B072</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>5183679</v>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -4506,7 +4606,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>29803000000</v>
+        <v>31560</v>
       </c>
       <c r="AC28" t="n">
         <v>27880</v>
@@ -4524,7 +4624,9 @@
           <t>PLKGHM000017</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ28" t="b">
         <v>0</v>
       </c>
@@ -4594,7 +4696,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>15945</v>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -4632,7 +4736,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC29" t="n">
         <v>18361.13</v>
@@ -4650,7 +4754,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr"/>
+      <c r="AI29" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ29" t="b">
         <v>0</v>
       </c>
@@ -4738,7 +4844,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>15945</v>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -4776,7 +4884,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC30" t="n">
         <v>18361.13</v>
@@ -4794,7 +4902,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ30" t="b">
         <v>0</v>
       </c>
@@ -4882,7 +4992,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>15945</v>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -4920,7 +5032,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC31" t="n">
         <v>18361.13</v>
@@ -4938,7 +5050,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ31" t="b">
         <v>0</v>
       </c>
@@ -5028,7 +5142,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>15945</v>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -5066,7 +5182,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC32" t="n">
         <v>18361.13</v>
@@ -5084,7 +5200,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr"/>
+      <c r="AI32" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ32" t="b">
         <v>0</v>
       </c>
@@ -5174,7 +5292,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>15945</v>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -5212,7 +5332,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC33" t="n">
         <v>18361.13</v>
@@ -5230,7 +5350,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ33" t="b">
         <v>0</v>
       </c>
@@ -5318,7 +5440,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>15945</v>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -5356,7 +5480,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC34" t="n">
         <v>18361.13</v>
@@ -5374,7 +5498,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
@@ -5466,7 +5592,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>15945</v>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -5504,7 +5632,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC35" t="n">
         <v>18361.13</v>
@@ -5522,7 +5650,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ35" t="b">
         <v>0</v>
       </c>
@@ -5634,7 +5764,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>15945</v>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -5672,7 +5804,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC36" t="n">
         <v>18361.13</v>
@@ -5690,7 +5822,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ36" t="b">
         <v>0</v>
       </c>
@@ -5780,7 +5914,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>15945</v>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -5818,7 +5954,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>7146633000</v>
+        <v>15.09</v>
       </c>
       <c r="AC37" t="n">
         <v>18361.13</v>
@@ -5836,7 +5972,9 @@
           <t>PLBRE0000012</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ37" t="b">
         <v>0</v>
       </c>
@@ -5918,15 +6056,15 @@
       <c r="P38" t="n">
         <v>2025</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
           <t>J61</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>366700</v>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -5964,7 +6102,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC38" t="n">
         <v>11089.42</v>
@@ -5982,7 +6120,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr"/>
+      <c r="AI38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ38" t="b">
         <v>0</v>
       </c>
@@ -6072,7 +6212,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>366700</v>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -6110,7 +6252,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC39" t="n">
         <v>11089.42</v>
@@ -6128,7 +6270,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr"/>
+      <c r="AI39" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ39" t="b">
         <v>0</v>
       </c>
@@ -6216,7 +6360,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>366700</v>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -6254,7 +6400,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC40" t="n">
         <v>11089.42</v>
@@ -6272,7 +6418,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ40" t="b">
         <v>0</v>
       </c>
@@ -6342,7 +6490,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>366700</v>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -6380,7 +6530,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC41" t="n">
         <v>11089.42</v>
@@ -6398,7 +6548,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI41" t="inlineStr"/>
+      <c r="AI41" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ41" t="b">
         <v>0</v>
       </c>
@@ -6486,7 +6638,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>366700</v>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -6524,7 +6678,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC42" t="n">
         <v>11089.42</v>
@@ -6542,7 +6696,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI42" t="inlineStr"/>
+      <c r="AI42" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ42" t="b">
         <v>0</v>
       </c>
@@ -6630,7 +6786,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>366700</v>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -6668,7 +6826,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC43" t="n">
         <v>11089.42</v>
@@ -6686,7 +6844,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr"/>
+      <c r="AI43" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ43" t="b">
         <v>0</v>
       </c>
@@ -6776,7 +6936,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>366700</v>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -6814,7 +6976,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC44" t="n">
         <v>11089.42</v>
@@ -6832,7 +6994,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr"/>
+      <c r="AI44" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ44" t="b">
         <v>0</v>
       </c>
@@ -6942,7 +7106,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>366700</v>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -6980,7 +7146,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC45" t="n">
         <v>11089.42</v>
@@ -6998,7 +7164,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI45" t="inlineStr"/>
+      <c r="AI45" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ45" t="b">
         <v>0</v>
       </c>
@@ -7088,7 +7256,9 @@
           <t>J61</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>366700</v>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -7126,7 +7296,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>11928000000</v>
+        <v>12286</v>
       </c>
       <c r="AC46" t="n">
         <v>11089.42</v>
@@ -7144,7 +7314,9 @@
           <t>PLTLKPL00017</t>
         </is>
       </c>
-      <c r="AI46" t="inlineStr"/>
+      <c r="AI46" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ46" t="b">
         <v>0</v>
       </c>
@@ -7214,7 +7386,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>72257</v>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -7252,7 +7426,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC47" t="n">
         <v>32021.34</v>
@@ -7270,7 +7444,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ47" t="b">
         <v>0</v>
       </c>
@@ -7358,7 +7534,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>72257</v>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -7396,7 +7574,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC48" t="n">
         <v>32021.34</v>
@@ -7414,7 +7592,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI48" t="inlineStr"/>
+      <c r="AI48" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ48" t="b">
         <v>0</v>
       </c>
@@ -7502,7 +7682,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>72257</v>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -7540,7 +7722,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC49" t="n">
         <v>32021.34</v>
@@ -7558,7 +7740,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI49" t="inlineStr"/>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ49" t="b">
         <v>0</v>
       </c>
@@ -7648,7 +7832,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>72257</v>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -7686,7 +7872,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC50" t="n">
         <v>32021.34</v>
@@ -7704,7 +7890,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr"/>
+      <c r="AI50" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ50" t="b">
         <v>0</v>
       </c>
@@ -7794,7 +7982,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>72257</v>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -7832,7 +8022,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC51" t="n">
         <v>32021.34</v>
@@ -7850,7 +8040,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr"/>
+      <c r="AI51" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ51" t="b">
         <v>0</v>
       </c>
@@ -7938,7 +8130,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>72257</v>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -7976,7 +8170,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC52" t="n">
         <v>32021.34</v>
@@ -7994,7 +8188,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr"/>
+      <c r="AI52" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ52" t="b">
         <v>0</v>
       </c>
@@ -8064,7 +8260,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>72257</v>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
@@ -8102,7 +8300,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC53" t="n">
         <v>32021.34</v>
@@ -8120,7 +8318,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI53" t="inlineStr"/>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ53" t="b">
         <v>0</v>
       </c>
@@ -8208,7 +8408,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>72257</v>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -8246,7 +8448,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC54" t="n">
         <v>32021.34</v>
@@ -8264,7 +8466,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI54" t="inlineStr"/>
+      <c r="AI54" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ54" t="b">
         <v>0</v>
       </c>
@@ -8352,7 +8556,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>72257</v>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
@@ -8390,7 +8596,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>9100353000</v>
+        <v>8630.030000000001</v>
       </c>
       <c r="AC55" t="n">
         <v>32021.34</v>
@@ -8408,7 +8614,9 @@
           <t>PLPEKAO00016</t>
         </is>
       </c>
-      <c r="AI55" t="inlineStr"/>
+      <c r="AI55" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ55" t="b">
         <v>0</v>
       </c>
@@ -8478,7 +8686,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -8516,7 +8726,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC56" t="n">
         <v>15074.01</v>
@@ -8534,7 +8744,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI56" t="inlineStr"/>
+      <c r="AI56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ56" t="b">
         <v>0</v>
       </c>
@@ -8622,7 +8834,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -8660,7 +8874,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC57" t="n">
         <v>15074.01</v>
@@ -8678,7 +8892,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI57" t="inlineStr"/>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ57" t="b">
         <v>0</v>
       </c>
@@ -8766,7 +8982,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
@@ -8804,7 +9022,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC58" t="n">
         <v>15074.01</v>
@@ -8822,7 +9040,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr"/>
+      <c r="AI58" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ58" t="b">
         <v>0</v>
       </c>
@@ -8892,7 +9112,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -8930,7 +9152,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC59" t="n">
         <v>15074.01</v>
@@ -8948,7 +9170,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI59" t="inlineStr"/>
+      <c r="AI59" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ59" t="b">
         <v>0</v>
       </c>
@@ -9036,7 +9260,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -9074,7 +9300,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC60" t="n">
         <v>15074.01</v>
@@ -9092,7 +9318,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr"/>
+      <c r="AI60" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ60" t="b">
         <v>0</v>
       </c>
@@ -9180,7 +9408,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -9218,7 +9448,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC61" t="n">
         <v>15074.01</v>
@@ -9236,7 +9466,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI61" t="inlineStr"/>
+      <c r="AI61" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ61" t="b">
         <v>0</v>
       </c>
@@ -9324,7 +9556,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
@@ -9362,7 +9596,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC62" t="n">
         <v>15074.01</v>
@@ -9380,7 +9614,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI62" t="inlineStr"/>
+      <c r="AI62" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ62" t="b">
         <v>0</v>
       </c>
@@ -9470,7 +9706,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
@@ -9508,7 +9746,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC63" t="n">
         <v>15074.01</v>
@@ -9526,7 +9764,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI63" t="inlineStr"/>
+      <c r="AI63" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ63" t="b">
         <v>0</v>
       </c>
@@ -9614,7 +9854,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>73169805</v>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
@@ -9652,7 +9894,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>52730000000</v>
+        <v>56787</v>
       </c>
       <c r="AC64" t="n">
         <v>15074.01</v>
@@ -9670,7 +9912,9 @@
           <t>PLPGER000010</t>
         </is>
       </c>
-      <c r="AI64" t="inlineStr"/>
+      <c r="AI64" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ64" t="b">
         <v>0</v>
       </c>
@@ -9740,7 +9984,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -9778,7 +10024,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC65" t="n">
         <v>31795.89</v>
@@ -9796,7 +10042,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr"/>
+      <c r="AI65" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ65" t="b">
         <v>0</v>
       </c>
@@ -9884,7 +10132,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
@@ -9922,7 +10172,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC66" t="n">
         <v>31795.89</v>
@@ -9940,7 +10190,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI66" t="inlineStr"/>
+      <c r="AI66" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ66" t="b">
         <v>0</v>
       </c>
@@ -10028,7 +10280,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -10066,7 +10320,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC67" t="n">
         <v>31795.89</v>
@@ -10084,7 +10338,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr"/>
+      <c r="AI67" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ67" t="b">
         <v>0</v>
       </c>
@@ -10137,24 +10393,48 @@
           <t>Absolute</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L68" t="n">
+        <v>17715216</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1259736</v>
+      </c>
+      <c r="N68" t="n">
+        <v>81123571</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2030</v>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
           <t>C19</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -10192,7 +10472,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC68" t="n">
         <v>31795.89</v>
@@ -10210,7 +10490,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI68" t="inlineStr"/>
+      <c r="AI68" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ68" t="b">
         <v>0</v>
       </c>
@@ -10219,7 +10501,9 @@
           <t>Emissions|Kyoto Gases</t>
         </is>
       </c>
-      <c r="AL68" t="inlineStr"/>
+      <c r="AL68" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AM68" t="inlineStr">
         <is>
           <t>slope15</t>
@@ -10246,13 +10530,13 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="69">
@@ -10298,7 +10582,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
@@ -10336,7 +10622,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC69" t="n">
         <v>31795.89</v>
@@ -10354,7 +10640,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI69" t="inlineStr"/>
+      <c r="AI69" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ69" t="b">
         <v>0</v>
       </c>
@@ -10442,7 +10730,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
@@ -10480,7 +10770,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC70" t="n">
         <v>31795.89</v>
@@ -10498,7 +10788,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI70" t="inlineStr"/>
+      <c r="AI70" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ70" t="b">
         <v>0</v>
       </c>
@@ -10575,7 +10867,9 @@
       <c r="M71" t="n">
         <v>1259736</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>81123571</v>
+      </c>
       <c r="O71" t="n">
         <v>2020</v>
       </c>
@@ -10588,7 +10882,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
@@ -10626,7 +10922,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC71" t="n">
         <v>31795.89</v>
@@ -10644,7 +10940,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI71" t="inlineStr"/>
+      <c r="AI71" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ71" t="b">
         <v>0</v>
       </c>
@@ -10734,7 +11032,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
@@ -10772,7 +11072,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC72" t="n">
         <v>31795.89</v>
@@ -10790,7 +11090,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr"/>
+      <c r="AI72" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ72" t="b">
         <v>0</v>
       </c>
@@ -10878,7 +11180,9 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>19237589</v>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -10916,7 +11220,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>131341000000</v>
+        <v>139252</v>
       </c>
       <c r="AC73" t="n">
         <v>31795.89</v>
@@ -10934,7 +11238,9 @@
           <t>PLPKN0000018</t>
         </is>
       </c>
-      <c r="AI73" t="inlineStr"/>
+      <c r="AI73" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ73" t="b">
         <v>0</v>
       </c>
@@ -11024,7 +11330,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>50692</v>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -11062,7 +11370,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC74" t="n">
         <v>56162.5</v>
@@ -11080,7 +11388,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI74" t="inlineStr"/>
+      <c r="AI74" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ74" t="b">
         <v>0</v>
       </c>
@@ -11170,7 +11480,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>50692</v>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
@@ -11208,7 +11520,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC75" t="n">
         <v>56162.5</v>
@@ -11226,7 +11538,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI75" t="inlineStr"/>
+      <c r="AI75" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ75" t="b">
         <v>0</v>
       </c>
@@ -11314,7 +11628,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>50692</v>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
@@ -11352,7 +11668,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC76" t="n">
         <v>56162.5</v>
@@ -11370,7 +11686,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI76" t="inlineStr"/>
+      <c r="AI76" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ76" t="b">
         <v>0</v>
       </c>
@@ -11440,7 +11758,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>50692</v>
+      </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
@@ -11478,7 +11798,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC77" t="n">
         <v>56162.5</v>
@@ -11496,7 +11816,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr"/>
+      <c r="AI77" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ77" t="b">
         <v>0</v>
       </c>
@@ -11584,7 +11906,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>50692</v>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
@@ -11622,7 +11946,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC78" t="n">
         <v>56162.5</v>
@@ -11640,7 +11964,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI78" t="inlineStr"/>
+      <c r="AI78" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ78" t="b">
         <v>0</v>
       </c>
@@ -11728,7 +12054,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>50692</v>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
@@ -11766,7 +12094,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC79" t="n">
         <v>56162.5</v>
@@ -11784,7 +12112,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI79" t="inlineStr"/>
+      <c r="AI79" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ79" t="b">
         <v>0</v>
       </c>
@@ -11854,7 +12184,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>50692</v>
+      </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
@@ -11892,7 +12224,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC80" t="n">
         <v>56162.5</v>
@@ -11910,7 +12242,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI80" t="inlineStr"/>
+      <c r="AI80" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ80" t="b">
         <v>0</v>
       </c>
@@ -11998,7 +12332,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>50692</v>
+      </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
@@ -12036,7 +12372,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC81" t="n">
         <v>56162.5</v>
@@ -12054,7 +12390,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI81" t="inlineStr"/>
+      <c r="AI81" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ81" t="b">
         <v>0</v>
       </c>
@@ -12142,7 +12480,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>50692</v>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
@@ -12180,7 +12520,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>10568000000</v>
+        <v>8384.299999999999</v>
       </c>
       <c r="AC82" t="n">
         <v>56162.5</v>
@@ -12198,7 +12538,9 @@
           <t>PLPKO0000016</t>
         </is>
       </c>
-      <c r="AI82" t="inlineStr"/>
+      <c r="AI82" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ82" t="b">
         <v>0</v>
       </c>
@@ -12288,7 +12630,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>126996</v>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
@@ -12326,7 +12670,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC83" t="n">
         <v>30525.54</v>
@@ -12344,7 +12688,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI83" t="inlineStr"/>
+      <c r="AI83" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ83" t="b">
         <v>0</v>
       </c>
@@ -12434,7 +12780,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>126996</v>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
@@ -12472,7 +12820,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC84" t="n">
         <v>30525.54</v>
@@ -12490,7 +12838,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI84" t="inlineStr"/>
+      <c r="AI84" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ84" t="b">
         <v>0</v>
       </c>
@@ -12578,7 +12928,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>126996</v>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
@@ -12616,7 +12968,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC85" t="n">
         <v>30525.54</v>
@@ -12634,7 +12986,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI85" t="inlineStr"/>
+      <c r="AI85" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ85" t="b">
         <v>0</v>
       </c>
@@ -12704,7 +13058,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>126996</v>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
@@ -12742,7 +13098,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC86" t="n">
         <v>30525.54</v>
@@ -12760,7 +13116,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI86" t="inlineStr"/>
+      <c r="AI86" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ86" t="b">
         <v>0</v>
       </c>
@@ -12848,7 +13206,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>126996</v>
+      </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
@@ -12886,7 +13246,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC87" t="n">
         <v>30525.54</v>
@@ -12904,7 +13264,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr"/>
+      <c r="AI87" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ87" t="b">
         <v>0</v>
       </c>
@@ -12992,7 +13354,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>126996</v>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
@@ -13030,7 +13394,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC88" t="n">
         <v>30525.54</v>
@@ -13048,7 +13412,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI88" t="inlineStr"/>
+      <c r="AI88" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ88" t="b">
         <v>0</v>
       </c>
@@ -13140,7 +13506,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>126996</v>
+      </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
@@ -13178,7 +13546,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC89" t="n">
         <v>30525.54</v>
@@ -13196,7 +13564,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI89" t="inlineStr"/>
+      <c r="AI89" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ89" t="b">
         <v>0</v>
       </c>
@@ -13308,7 +13678,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>126996</v>
+      </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
@@ -13346,7 +13718,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC90" t="n">
         <v>30525.54</v>
@@ -13364,7 +13736,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI90" t="inlineStr"/>
+      <c r="AI90" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ90" t="b">
         <v>0</v>
       </c>
@@ -13454,7 +13828,9 @@
           <t>K651</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>126996</v>
+      </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
@@ -13492,7 +13868,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>7454000000</v>
+        <v>31335</v>
       </c>
       <c r="AC91" t="n">
         <v>30525.54</v>
@@ -13510,7 +13886,9 @@
           <t>PLPZU0000011</t>
         </is>
       </c>
-      <c r="AI91" t="inlineStr"/>
+      <c r="AI91" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ91" t="b">
         <v>0</v>
       </c>
@@ -13580,7 +13958,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>21470</v>
+      </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
@@ -13618,7 +13998,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC92" t="n">
         <v>35612.98</v>
@@ -13636,7 +14016,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI92" t="inlineStr"/>
+      <c r="AI92" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ92" t="b">
         <v>0</v>
       </c>
@@ -13724,7 +14106,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>21470</v>
+      </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
@@ -13762,7 +14146,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC93" t="n">
         <v>35612.98</v>
@@ -13780,7 +14164,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI93" t="inlineStr"/>
+      <c r="AI93" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ93" t="b">
         <v>0</v>
       </c>
@@ -13868,7 +14254,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>21470</v>
+      </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
@@ -13906,7 +14294,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC94" t="n">
         <v>35612.98</v>
@@ -13924,7 +14312,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI94" t="inlineStr"/>
+      <c r="AI94" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ94" t="b">
         <v>0</v>
       </c>
@@ -13994,7 +14384,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>21470</v>
+      </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
@@ -14032,7 +14424,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC95" t="n">
         <v>35612.98</v>
@@ -14050,7 +14442,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI95" t="inlineStr"/>
+      <c r="AI95" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ95" t="b">
         <v>0</v>
       </c>
@@ -14138,7 +14532,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>21470</v>
+      </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
@@ -14176,7 +14572,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC96" t="n">
         <v>35612.98</v>
@@ -14194,7 +14590,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI96" t="inlineStr"/>
+      <c r="AI96" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ96" t="b">
         <v>0</v>
       </c>
@@ -14282,7 +14680,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>21470</v>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
@@ -14320,7 +14720,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC97" t="n">
         <v>35612.98</v>
@@ -14338,7 +14738,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI97" t="inlineStr"/>
+      <c r="AI97" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ97" t="b">
         <v>0</v>
       </c>
@@ -14430,7 +14832,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>21470</v>
+      </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
@@ -14468,7 +14872,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC98" t="n">
         <v>35612.98</v>
@@ -14486,7 +14890,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI98" t="inlineStr"/>
+      <c r="AI98" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ98" t="b">
         <v>0</v>
       </c>
@@ -14598,7 +15004,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>21470</v>
+      </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
@@ -14636,7 +15044,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC99" t="n">
         <v>35612.98</v>
@@ -14654,7 +15062,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI99" t="inlineStr"/>
+      <c r="AI99" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ99" t="b">
         <v>0</v>
       </c>
@@ -14744,7 +15154,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>21470</v>
+      </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
@@ -14782,7 +15194,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>9335175000</v>
+        <v>4267.36</v>
       </c>
       <c r="AC100" t="n">
         <v>35612.98</v>
@@ -14800,7 +15212,9 @@
           <t>PLBZ00000044</t>
         </is>
       </c>
-      <c r="AI100" t="inlineStr"/>
+      <c r="AI100" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ100" t="b">
         <v>0</v>
       </c>
@@ -14890,7 +15304,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
@@ -14928,7 +15344,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC101" t="n">
         <v>2213.4</v>
@@ -14946,7 +15362,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI101" t="inlineStr"/>
+      <c r="AI101" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ101" t="b">
         <v>0</v>
       </c>
@@ -15036,7 +15454,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
@@ -15074,7 +15494,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC102" t="n">
         <v>2213.4</v>
@@ -15092,7 +15512,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr"/>
+      <c r="AI102" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ102" t="b">
         <v>0</v>
       </c>
@@ -15180,7 +15602,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
@@ -15218,7 +15642,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC103" t="n">
         <v>2213.4</v>
@@ -15236,7 +15660,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI103" t="inlineStr"/>
+      <c r="AI103" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ103" t="b">
         <v>0</v>
       </c>
@@ -15306,7 +15732,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
@@ -15344,7 +15772,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC104" t="n">
         <v>2213.4</v>
@@ -15362,7 +15790,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI104" t="inlineStr"/>
+      <c r="AI104" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ104" t="b">
         <v>0</v>
       </c>
@@ -15450,7 +15880,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
@@ -15488,7 +15920,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC105" t="n">
         <v>2213.4</v>
@@ -15506,7 +15938,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI105" t="inlineStr"/>
+      <c r="AI105" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ105" t="b">
         <v>0</v>
       </c>
@@ -15594,7 +16028,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
@@ -15632,7 +16068,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC106" t="n">
         <v>2213.4</v>
@@ -15650,7 +16086,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI106" t="inlineStr"/>
+      <c r="AI106" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ106" t="b">
         <v>0</v>
       </c>
@@ -15740,7 +16178,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
@@ -15778,7 +16218,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC107" t="n">
         <v>2213.4</v>
@@ -15796,7 +16236,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI107" t="inlineStr"/>
+      <c r="AI107" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ107" t="b">
         <v>0</v>
       </c>
@@ -15886,7 +16328,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
@@ -15924,7 +16368,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC108" t="n">
         <v>2213.4</v>
@@ -15942,7 +16386,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI108" t="inlineStr"/>
+      <c r="AI108" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ108" t="b">
         <v>0</v>
       </c>
@@ -16030,7 +16476,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>2819053</v>
+      </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
@@ -16068,7 +16516,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>3459915000</v>
+        <v>3698.31</v>
       </c>
       <c r="AC109" t="n">
         <v>2213.4</v>
@@ -16086,7 +16534,9 @@
           <t>PLCIECH00018</t>
         </is>
       </c>
-      <c r="AI109" t="inlineStr"/>
+      <c r="AI109" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ109" t="b">
         <v>0</v>
       </c>
@@ -16156,7 +16606,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
@@ -16194,7 +16646,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC110" t="n">
         <v>3756.68</v>
@@ -16212,7 +16664,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI110" t="inlineStr"/>
+      <c r="AI110" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ110" t="b">
         <v>0</v>
       </c>
@@ -16300,7 +16754,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
@@ -16338,7 +16794,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC111" t="n">
         <v>3756.68</v>
@@ -16356,7 +16812,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI111" t="inlineStr"/>
+      <c r="AI111" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ111" t="b">
         <v>0</v>
       </c>
@@ -16444,7 +16902,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
@@ -16482,7 +16942,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC112" t="n">
         <v>3756.68</v>
@@ -16500,7 +16960,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI112" t="inlineStr"/>
+      <c r="AI112" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ112" t="b">
         <v>0</v>
       </c>
@@ -16570,7 +17032,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
@@ -16608,7 +17072,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC113" t="n">
         <v>3756.68</v>
@@ -16626,7 +17090,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI113" t="inlineStr"/>
+      <c r="AI113" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ113" t="b">
         <v>0</v>
       </c>
@@ -16714,7 +17180,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
@@ -16752,7 +17220,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC114" t="n">
         <v>3756.68</v>
@@ -16770,7 +17238,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI114" t="inlineStr"/>
+      <c r="AI114" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ114" t="b">
         <v>0</v>
       </c>
@@ -16858,7 +17328,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
@@ -16896,7 +17368,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC115" t="n">
         <v>3756.68</v>
@@ -16914,7 +17386,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI115" t="inlineStr"/>
+      <c r="AI115" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ115" t="b">
         <v>0</v>
       </c>
@@ -16967,24 +17441,46 @@
           <t>Absolute</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9999999994644185</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9999999994644185</v>
+      </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L116" t="n">
+        <v>18671299</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.01</v>
+      </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2050</v>
+      </c>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
           <t>D3510</t>
         </is>
       </c>
-      <c r="S116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
@@ -17022,7 +17518,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC116" t="n">
         <v>3756.68</v>
@@ -17040,7 +17536,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI116" t="inlineStr"/>
+      <c r="AI116" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ116" t="b">
         <v>0</v>
       </c>
@@ -17049,7 +17547,9 @@
           <t>Emissions|CO2|Energy and Industrial Processes</t>
         </is>
       </c>
-      <c r="AL116" t="inlineStr"/>
+      <c r="AL116" t="n">
+        <v>0.03166666666666666</v>
+      </c>
       <c r="AM116" t="inlineStr">
         <is>
           <t>slope30</t>
@@ -17076,13 +17576,13 @@
         <v>0.9005513256019539</v>
       </c>
       <c r="AT116" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
       <c r="AU116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV116" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="117">
@@ -17128,7 +17628,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
@@ -17166,7 +17668,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC117" t="n">
         <v>3756.68</v>
@@ -17184,7 +17686,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI117" t="inlineStr"/>
+      <c r="AI117" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ117" t="b">
         <v>0</v>
       </c>
@@ -17272,7 +17776,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>22708361</v>
+      </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
@@ -17310,7 +17816,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>8018616000</v>
+        <v>21499.56</v>
       </c>
       <c r="AC118" t="n">
         <v>3756.68</v>
@@ -17328,7 +17834,9 @@
           <t>PLENEA000013</t>
         </is>
       </c>
-      <c r="AI118" t="inlineStr"/>
+      <c r="AI118" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ118" t="b">
         <v>0</v>
       </c>
@@ -17418,7 +17926,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>3480</v>
+      </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
@@ -17456,7 +17966,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC119" t="n">
         <v>1738.48</v>
@@ -17474,7 +17984,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI119" t="inlineStr"/>
+      <c r="AI119" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ119" t="b">
         <v>0</v>
       </c>
@@ -17564,7 +18076,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>3480</v>
+      </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
@@ -17602,7 +18116,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC120" t="n">
         <v>1738.48</v>
@@ -17620,7 +18134,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI120" t="inlineStr"/>
+      <c r="AI120" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ120" t="b">
         <v>0</v>
       </c>
@@ -17708,7 +18224,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>3480</v>
+      </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
@@ -17746,7 +18264,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC121" t="n">
         <v>1738.48</v>
@@ -17764,7 +18282,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI121" t="inlineStr"/>
+      <c r="AI121" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ121" t="b">
         <v>0</v>
       </c>
@@ -17854,7 +18374,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>3480</v>
+      </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
@@ -17892,7 +18414,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC122" t="n">
         <v>1738.48</v>
@@ -17910,7 +18432,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI122" t="inlineStr"/>
+      <c r="AI122" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ122" t="b">
         <v>0</v>
       </c>
@@ -18000,7 +18524,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>3480</v>
+      </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
@@ -18038,7 +18564,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC123" t="n">
         <v>1738.48</v>
@@ -18056,7 +18582,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI123" t="inlineStr"/>
+      <c r="AI123" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ123" t="b">
         <v>0</v>
       </c>
@@ -18144,7 +18672,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>3480</v>
+      </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
@@ -18182,7 +18712,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC124" t="n">
         <v>1738.48</v>
@@ -18200,7 +18730,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI124" t="inlineStr"/>
+      <c r="AI124" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ124" t="b">
         <v>0</v>
       </c>
@@ -18270,7 +18802,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>3480</v>
+      </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
@@ -18308,7 +18842,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC125" t="n">
         <v>1738.48</v>
@@ -18326,7 +18860,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI125" t="inlineStr"/>
+      <c r="AI125" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ125" t="b">
         <v>0</v>
       </c>
@@ -18414,7 +18950,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>3480</v>
+      </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
@@ -18452,7 +18990,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC126" t="n">
         <v>1738.48</v>
@@ -18470,7 +19008,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI126" t="inlineStr"/>
+      <c r="AI126" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ126" t="b">
         <v>0</v>
       </c>
@@ -18558,7 +19098,9 @@
           <t>K6611</t>
         </is>
       </c>
-      <c r="S127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>3480</v>
+      </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
@@ -18596,7 +19138,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>407571000</v>
+        <v>410.58</v>
       </c>
       <c r="AC127" t="n">
         <v>1738.48</v>
@@ -18614,7 +19156,9 @@
           <t>PLGPW0000017</t>
         </is>
       </c>
-      <c r="AI127" t="inlineStr"/>
+      <c r="AI127" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ127" t="b">
         <v>0</v>
       </c>
@@ -18684,7 +19228,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
@@ -18722,7 +19268,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC128" t="n">
         <v>3352.81</v>
@@ -18740,7 +19286,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI128" t="inlineStr"/>
+      <c r="AI128" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ128" t="b">
         <v>0</v>
       </c>
@@ -18828,7 +19376,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
@@ -18866,7 +19416,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC129" t="n">
         <v>3352.81</v>
@@ -18884,7 +19434,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI129" t="inlineStr"/>
+      <c r="AI129" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ129" t="b">
         <v>0</v>
       </c>
@@ -18972,7 +19524,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
@@ -19010,7 +19564,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC130" t="n">
         <v>3352.81</v>
@@ -19028,7 +19582,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI130" t="inlineStr"/>
+      <c r="AI130" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ130" t="b">
         <v>0</v>
       </c>
@@ -19118,7 +19674,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
@@ -19156,7 +19714,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC131" t="n">
         <v>3352.81</v>
@@ -19174,7 +19732,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI131" t="inlineStr"/>
+      <c r="AI131" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ131" t="b">
         <v>0</v>
       </c>
@@ -19264,7 +19824,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
@@ -19302,7 +19864,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC132" t="n">
         <v>3352.81</v>
@@ -19320,7 +19882,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI132" t="inlineStr"/>
+      <c r="AI132" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ132" t="b">
         <v>0</v>
       </c>
@@ -19408,7 +19972,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
@@ -19446,7 +20012,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC133" t="n">
         <v>3352.81</v>
@@ -19464,7 +20030,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI133" t="inlineStr"/>
+      <c r="AI133" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ133" t="b">
         <v>0</v>
       </c>
@@ -19534,7 +20102,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
@@ -19572,7 +20142,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC134" t="n">
         <v>3352.81</v>
@@ -19590,7 +20160,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI134" t="inlineStr"/>
+      <c r="AI134" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ134" t="b">
         <v>0</v>
       </c>
@@ -19678,7 +20250,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
@@ -19716,7 +20290,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC135" t="n">
         <v>3352.81</v>
@@ -19734,7 +20308,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI135" t="inlineStr"/>
+      <c r="AI135" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ135" t="b">
         <v>0</v>
       </c>
@@ -19822,7 +20398,9 @@
           <t>C201</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>9328000</v>
+      </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
@@ -19860,7 +20438,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>15901259000</v>
+        <v>16</v>
       </c>
       <c r="AC136" t="n">
         <v>3352.81</v>
@@ -19878,7 +20456,9 @@
           <t>PLZATRM00012</t>
         </is>
       </c>
-      <c r="AI136" t="inlineStr"/>
+      <c r="AI136" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ136" t="b">
         <v>0</v>
       </c>
@@ -19948,7 +20528,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>8090</v>
+      </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
@@ -19986,7 +20568,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC137" t="n">
         <v>34736.7</v>
@@ -20004,7 +20586,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI137" t="inlineStr"/>
+      <c r="AI137" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ137" t="b">
         <v>0</v>
       </c>
@@ -20092,7 +20676,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>8090</v>
+      </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
@@ -20130,7 +20716,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC138" t="n">
         <v>34736.7</v>
@@ -20148,7 +20734,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI138" t="inlineStr"/>
+      <c r="AI138" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ138" t="b">
         <v>0</v>
       </c>
@@ -20236,7 +20824,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>8090</v>
+      </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
@@ -20274,7 +20864,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC139" t="n">
         <v>34736.7</v>
@@ -20292,7 +20882,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI139" t="inlineStr"/>
+      <c r="AI139" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ139" t="b">
         <v>0</v>
       </c>
@@ -20382,7 +20974,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>8090</v>
+      </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
@@ -20420,7 +21014,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC140" t="n">
         <v>34736.7</v>
@@ -20438,7 +21032,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI140" t="inlineStr"/>
+      <c r="AI140" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ140" t="b">
         <v>0</v>
       </c>
@@ -20528,7 +21124,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>8090</v>
+      </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
@@ -20566,7 +21164,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC141" t="n">
         <v>34736.7</v>
@@ -20584,7 +21182,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI141" t="inlineStr"/>
+      <c r="AI141" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ141" t="b">
         <v>0</v>
       </c>
@@ -20672,7 +21272,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>8090</v>
+      </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
@@ -20710,7 +21312,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC142" t="n">
         <v>34736.7</v>
@@ -20728,7 +21330,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI142" t="inlineStr"/>
+      <c r="AI142" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ142" t="b">
         <v>0</v>
       </c>
@@ -20798,7 +21402,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>8090</v>
+      </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
@@ -20836,7 +21442,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC143" t="n">
         <v>34736.7</v>
@@ -20854,7 +21460,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI143" t="inlineStr"/>
+      <c r="AI143" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ143" t="b">
         <v>0</v>
       </c>
@@ -20942,7 +21550,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>8090</v>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr">
         <is>
@@ -20980,7 +21590,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC144" t="n">
         <v>34736.7</v>
@@ -20998,7 +21608,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI144" t="inlineStr"/>
+      <c r="AI144" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ144" t="b">
         <v>0</v>
       </c>
@@ -21086,7 +21698,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>8090</v>
+      </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr">
         <is>
@@ -21124,7 +21738,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>7757400000</v>
+        <v>8750.5</v>
       </c>
       <c r="AC145" t="n">
         <v>34736.7</v>
@@ -21142,7 +21756,9 @@
           <t>PLBSK0000017</t>
         </is>
       </c>
-      <c r="AI145" t="inlineStr"/>
+      <c r="AI145" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ145" t="b">
         <v>0</v>
       </c>
@@ -21212,7 +21828,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr">
         <is>
@@ -21250,7 +21868,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC146" t="n">
         <v>4651.27</v>
@@ -21268,7 +21886,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI146" t="inlineStr"/>
+      <c r="AI146" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ146" t="b">
         <v>0</v>
       </c>
@@ -21356,7 +21976,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
@@ -21394,7 +22016,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC147" t="n">
         <v>4651.27</v>
@@ -21412,7 +22034,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI147" t="inlineStr"/>
+      <c r="AI147" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ147" t="b">
         <v>0</v>
       </c>
@@ -21500,7 +22124,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr"/>
+      <c r="S148" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
@@ -21538,7 +22164,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC148" t="n">
         <v>4651.27</v>
@@ -21556,7 +22182,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI148" t="inlineStr"/>
+      <c r="AI148" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ148" t="b">
         <v>0</v>
       </c>
@@ -21627,7 +22255,9 @@
       <c r="K149" t="n">
         <v>2018</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>18441041.57</v>
+      </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="n">
@@ -21642,7 +22272,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr">
         <is>
@@ -21680,7 +22312,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC149" t="n">
         <v>4651.27</v>
@@ -21698,7 +22330,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI149" t="inlineStr"/>
+      <c r="AI149" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ149" t="b">
         <v>0</v>
       </c>
@@ -21788,7 +22422,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr"/>
+      <c r="S150" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr">
         <is>
@@ -21826,7 +22462,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC150" t="n">
         <v>4651.27</v>
@@ -21844,7 +22480,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI150" t="inlineStr"/>
+      <c r="AI150" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ150" t="b">
         <v>0</v>
       </c>
@@ -21932,7 +22570,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="S151" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr">
         <is>
@@ -21970,7 +22610,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC151" t="n">
         <v>4651.27</v>
@@ -21988,7 +22628,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI151" t="inlineStr"/>
+      <c r="AI151" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ151" t="b">
         <v>0</v>
       </c>
@@ -22058,7 +22700,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr">
         <is>
@@ -22096,7 +22740,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC152" t="n">
         <v>4651.27</v>
@@ -22114,7 +22758,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI152" t="inlineStr"/>
+      <c r="AI152" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ152" t="b">
         <v>0</v>
       </c>
@@ -22202,7 +22848,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
@@ -22240,7 +22888,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC153" t="n">
         <v>4651.27</v>
@@ -22258,7 +22906,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI153" t="inlineStr"/>
+      <c r="AI153" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ153" t="b">
         <v>0</v>
       </c>
@@ -22346,7 +22996,9 @@
           <t>D3510</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>15383718</v>
+      </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr">
         <is>
@@ -22384,7 +23036,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>25614000000</v>
+        <v>25713</v>
       </c>
       <c r="AC154" t="n">
         <v>4651.27</v>
@@ -22402,7 +23054,9 @@
           <t>PLTAURN00011</t>
         </is>
       </c>
-      <c r="AI154" t="inlineStr"/>
+      <c r="AI154" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ154" t="b">
         <v>0</v>
       </c>
@@ -22492,7 +23146,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>849</v>
+      </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr">
         <is>
@@ -22530,7 +23186,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC155" t="n">
         <v>4123.71</v>
@@ -22548,7 +23204,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI155" t="inlineStr"/>
+      <c r="AI155" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ155" t="b">
         <v>0</v>
       </c>
@@ -22638,7 +23296,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>849</v>
+      </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
@@ -22676,7 +23336,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC156" t="n">
         <v>4123.71</v>
@@ -22694,7 +23354,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI156" t="inlineStr"/>
+      <c r="AI156" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ156" t="b">
         <v>0</v>
       </c>
@@ -22782,7 +23444,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr"/>
+      <c r="S157" t="n">
+        <v>849</v>
+      </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr">
         <is>
@@ -22820,7 +23484,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC157" t="n">
         <v>4123.71</v>
@@ -22838,7 +23502,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI157" t="inlineStr"/>
+      <c r="AI157" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ157" t="b">
         <v>0</v>
       </c>
@@ -22928,7 +23594,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr"/>
+      <c r="S158" t="n">
+        <v>849</v>
+      </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr">
         <is>
@@ -22966,7 +23634,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC158" t="n">
         <v>4123.71</v>
@@ -22984,7 +23652,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI158" t="inlineStr"/>
+      <c r="AI158" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ158" t="b">
         <v>0</v>
       </c>
@@ -23074,7 +23744,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr"/>
+      <c r="S159" t="n">
+        <v>849</v>
+      </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr">
         <is>
@@ -23112,7 +23784,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC159" t="n">
         <v>4123.71</v>
@@ -23130,7 +23802,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI159" t="inlineStr"/>
+      <c r="AI159" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ159" t="b">
         <v>0</v>
       </c>
@@ -23218,7 +23892,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S160" t="inlineStr"/>
+      <c r="S160" t="n">
+        <v>849</v>
+      </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
@@ -23256,7 +23932,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC160" t="n">
         <v>4123.71</v>
@@ -23274,7 +23950,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI160" t="inlineStr"/>
+      <c r="AI160" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ160" t="b">
         <v>0</v>
       </c>
@@ -23344,7 +24022,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr"/>
+      <c r="S161" t="n">
+        <v>849</v>
+      </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
@@ -23382,7 +24062,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC161" t="n">
         <v>4123.71</v>
@@ -23400,7 +24080,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI161" t="inlineStr"/>
+      <c r="AI161" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ161" t="b">
         <v>0</v>
       </c>
@@ -23488,7 +24170,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr"/>
+      <c r="S162" t="n">
+        <v>849</v>
+      </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr">
         <is>
@@ -23526,7 +24210,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC162" t="n">
         <v>4123.71</v>
@@ -23544,7 +24228,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI162" t="inlineStr"/>
+      <c r="AI162" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ162" t="b">
         <v>0</v>
       </c>
@@ -23632,7 +24318,9 @@
           <t>J58</t>
         </is>
       </c>
-      <c r="S163" t="inlineStr"/>
+      <c r="S163" t="n">
+        <v>849</v>
+      </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr">
         <is>
@@ -23670,7 +24358,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>872239000</v>
+        <v>895.15</v>
       </c>
       <c r="AC163" t="n">
         <v>4123.71</v>
@@ -23688,7 +24376,9 @@
           <t>PLWRTPL00027</t>
         </is>
       </c>
-      <c r="AI163" t="inlineStr"/>
+      <c r="AI163" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ163" t="b">
         <v>0</v>
       </c>
@@ -23780,7 +24470,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S164" t="inlineStr"/>
+      <c r="S164" t="n">
+        <v>10461</v>
+      </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr">
         <is>
@@ -23818,7 +24510,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC164" t="n">
         <v>13453.71</v>
@@ -23836,7 +24528,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI164" t="inlineStr"/>
+      <c r="AI164" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ164" t="b">
         <v>0</v>
       </c>
@@ -23948,7 +24642,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr"/>
+      <c r="S165" t="n">
+        <v>10461</v>
+      </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr">
         <is>
@@ -23986,7 +24682,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC165" t="n">
         <v>13453.71</v>
@@ -24004,7 +24700,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI165" t="inlineStr"/>
+      <c r="AI165" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ165" t="b">
         <v>0</v>
       </c>
@@ -24094,7 +24792,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr"/>
+      <c r="S166" t="n">
+        <v>10461</v>
+      </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr">
         <is>
@@ -24132,7 +24832,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC166" t="n">
         <v>13453.71</v>
@@ -24150,7 +24850,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI166" t="inlineStr"/>
+      <c r="AI166" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ166" t="b">
         <v>0</v>
       </c>
@@ -24220,7 +24922,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr"/>
+      <c r="S167" t="n">
+        <v>10461</v>
+      </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr">
         <is>
@@ -24258,7 +24962,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC167" t="n">
         <v>13453.71</v>
@@ -24276,7 +24980,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI167" t="inlineStr"/>
+      <c r="AI167" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ167" t="b">
         <v>0</v>
       </c>
@@ -24364,7 +25070,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr"/>
+      <c r="S168" t="n">
+        <v>10461</v>
+      </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
@@ -24402,7 +25110,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC168" t="n">
         <v>13453.71</v>
@@ -24420,7 +25128,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI168" t="inlineStr"/>
+      <c r="AI168" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ168" t="b">
         <v>0</v>
       </c>
@@ -24508,7 +25218,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr"/>
+      <c r="S169" t="n">
+        <v>10461</v>
+      </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr">
         <is>
@@ -24546,7 +25258,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC169" t="n">
         <v>13453.71</v>
@@ -24564,7 +25276,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI169" t="inlineStr"/>
+      <c r="AI169" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ169" t="b">
         <v>0</v>
       </c>
@@ -24634,7 +25348,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr"/>
+      <c r="S170" t="n">
+        <v>10461</v>
+      </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr">
         <is>
@@ -24672,7 +25388,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC170" t="n">
         <v>13453.71</v>
@@ -24690,7 +25406,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI170" t="inlineStr"/>
+      <c r="AI170" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ170" t="b">
         <v>0</v>
       </c>
@@ -24778,7 +25496,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr"/>
+      <c r="S171" t="n">
+        <v>10461</v>
+      </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr">
         <is>
@@ -24816,7 +25536,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC171" t="n">
         <v>13453.71</v>
@@ -24834,7 +25554,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI171" t="inlineStr"/>
+      <c r="AI171" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ171" t="b">
         <v>0</v>
       </c>
@@ -24922,7 +25644,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr"/>
+      <c r="S172" t="n">
+        <v>10461</v>
+      </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
@@ -24960,7 +25684,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>4705359000</v>
+        <v>5519.98</v>
       </c>
       <c r="AC172" t="n">
         <v>13453.71</v>
@@ -24978,7 +25702,9 @@
           <t>PLBGZ0000010</t>
         </is>
       </c>
-      <c r="AI172" t="inlineStr"/>
+      <c r="AI172" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ172" t="b">
         <v>0</v>
       </c>
@@ -25048,7 +25774,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr"/>
+      <c r="S173" t="n">
+        <v>3004</v>
+      </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr">
         <is>
@@ -25086,7 +25814,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC173" t="n">
         <v>845.8200000000001</v>
@@ -25104,7 +25832,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI173" t="inlineStr"/>
+      <c r="AI173" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ173" t="b">
         <v>0</v>
       </c>
@@ -25192,7 +25922,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr"/>
+      <c r="S174" t="n">
+        <v>3004</v>
+      </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
@@ -25230,7 +25962,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC174" t="n">
         <v>845.8200000000001</v>
@@ -25248,7 +25980,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI174" t="inlineStr"/>
+      <c r="AI174" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ174" t="b">
         <v>0</v>
       </c>
@@ -25336,7 +26070,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr"/>
+      <c r="S175" t="n">
+        <v>3004</v>
+      </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr">
         <is>
@@ -25374,7 +26110,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC175" t="n">
         <v>845.8200000000001</v>
@@ -25392,7 +26128,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI175" t="inlineStr"/>
+      <c r="AI175" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ175" t="b">
         <v>0</v>
       </c>
@@ -25484,7 +26222,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr"/>
+      <c r="S176" t="n">
+        <v>3004</v>
+      </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr">
         <is>
@@ -25522,7 +26262,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC176" t="n">
         <v>845.8200000000001</v>
@@ -25540,7 +26280,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI176" t="inlineStr"/>
+      <c r="AI176" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ176" t="b">
         <v>0</v>
       </c>
@@ -25652,7 +26394,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S177" t="inlineStr"/>
+      <c r="S177" t="n">
+        <v>3004</v>
+      </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr">
         <is>
@@ -25690,7 +26434,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC177" t="n">
         <v>845.8200000000001</v>
@@ -25708,7 +26452,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI177" t="inlineStr"/>
+      <c r="AI177" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ177" t="b">
         <v>0</v>
       </c>
@@ -25798,7 +26544,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>3004</v>
+      </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr">
         <is>
@@ -25836,7 +26584,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC178" t="n">
         <v>845.8200000000001</v>
@@ -25854,7 +26602,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI178" t="inlineStr"/>
+      <c r="AI178" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ178" t="b">
         <v>0</v>
       </c>
@@ -25924,7 +26674,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S179" t="inlineStr"/>
+      <c r="S179" t="n">
+        <v>3004</v>
+      </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr">
         <is>
@@ -25962,7 +26714,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC179" t="n">
         <v>845.8200000000001</v>
@@ -25980,7 +26732,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI179" t="inlineStr"/>
+      <c r="AI179" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ179" t="b">
         <v>0</v>
       </c>
@@ -26068,7 +26822,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>3004</v>
+      </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr">
         <is>
@@ -26106,7 +26862,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC180" t="n">
         <v>845.8200000000001</v>
@@ -26124,7 +26880,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI180" t="inlineStr"/>
+      <c r="AI180" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ180" t="b">
         <v>0</v>
       </c>
@@ -26212,7 +26970,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr"/>
+      <c r="S181" t="n">
+        <v>3004</v>
+      </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr">
         <is>
@@ -26250,7 +27010,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>613972000</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="AC181" t="n">
         <v>845.8200000000001</v>
@@ -26268,7 +27028,9 @@
           <t>PLBOS0000019</t>
         </is>
       </c>
-      <c r="AI181" t="inlineStr"/>
+      <c r="AI181" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ181" t="b">
         <v>0</v>
       </c>
@@ -26338,7 +27100,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr"/>
+      <c r="S182" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr">
         <is>
@@ -26376,7 +27140,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC182" t="n">
         <v>4094.14</v>
@@ -26394,7 +27158,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI182" t="inlineStr"/>
+      <c r="AI182" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ182" t="b">
         <v>0</v>
       </c>
@@ -26482,7 +27248,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S183" t="inlineStr"/>
+      <c r="S183" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr">
         <is>
@@ -26520,7 +27288,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC183" t="n">
         <v>4094.14</v>
@@ -26538,7 +27306,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI183" t="inlineStr"/>
+      <c r="AI183" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ183" t="b">
         <v>0</v>
       </c>
@@ -26626,7 +27396,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr">
         <is>
@@ -26664,7 +27436,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC184" t="n">
         <v>4094.14</v>
@@ -26682,7 +27454,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI184" t="inlineStr"/>
+      <c r="AI184" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ184" t="b">
         <v>0</v>
       </c>
@@ -26772,7 +27546,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr">
         <is>
@@ -26810,7 +27586,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC185" t="n">
         <v>4094.14</v>
@@ -26828,7 +27604,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI185" t="inlineStr"/>
+      <c r="AI185" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ185" t="b">
         <v>0</v>
       </c>
@@ -26918,7 +27696,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr">
         <is>
@@ -26956,7 +27736,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC186" t="n">
         <v>4094.14</v>
@@ -26974,7 +27754,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI186" t="inlineStr"/>
+      <c r="AI186" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ186" t="b">
         <v>0</v>
       </c>
@@ -27062,7 +27844,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr">
         <is>
@@ -27100,7 +27884,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC187" t="n">
         <v>4094.14</v>
@@ -27118,7 +27902,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI187" t="inlineStr"/>
+      <c r="AI187" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ187" t="b">
         <v>0</v>
       </c>
@@ -27188,7 +27974,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S188" t="inlineStr"/>
+      <c r="S188" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr">
         <is>
@@ -27226,7 +28014,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC188" t="n">
         <v>4094.14</v>
@@ -27244,7 +28032,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI188" t="inlineStr"/>
+      <c r="AI188" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ188" t="b">
         <v>0</v>
       </c>
@@ -27332,7 +28122,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S189" t="inlineStr"/>
+      <c r="S189" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr">
         <is>
@@ -27370,7 +28162,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC189" t="n">
         <v>4094.14</v>
@@ -27388,7 +28180,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI189" t="inlineStr"/>
+      <c r="AI189" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ189" t="b">
         <v>0</v>
       </c>
@@ -27476,7 +28270,9 @@
           <t>B051</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>7920000</v>
+      </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr">
         <is>
@@ -27514,7 +28310,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>10629100000</v>
+        <v>11219.4</v>
       </c>
       <c r="AC190" t="n">
         <v>4094.14</v>
@@ -27532,7 +28328,9 @@
           <t>PLJSW0000015</t>
         </is>
       </c>
-      <c r="AI190" t="inlineStr"/>
+      <c r="AI190" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ190" t="b">
         <v>0</v>
       </c>
@@ -27587,7 +28385,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Revenue</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -27620,7 +28418,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>186670</v>
+      </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr">
         <is>
@@ -27658,7 +28458,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC191" t="n">
         <v>5886.59</v>
@@ -27676,7 +28476,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI191" t="inlineStr"/>
+      <c r="AI191" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ191" t="b">
         <v>0</v>
       </c>
@@ -27766,7 +28568,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>186670</v>
+      </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr">
         <is>
@@ -27804,7 +28608,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC192" t="n">
         <v>5886.59</v>
@@ -27822,7 +28626,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI192" t="inlineStr"/>
+      <c r="AI192" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ192" t="b">
         <v>0</v>
       </c>
@@ -27910,7 +28716,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>186670</v>
+      </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr">
         <is>
@@ -27948,7 +28756,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC193" t="n">
         <v>5886.59</v>
@@ -27966,7 +28774,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI193" t="inlineStr"/>
+      <c r="AI193" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ193" t="b">
         <v>0</v>
       </c>
@@ -28036,7 +28846,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>186670</v>
+      </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr">
         <is>
@@ -28074,7 +28886,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC194" t="n">
         <v>5886.59</v>
@@ -28092,7 +28904,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI194" t="inlineStr"/>
+      <c r="AI194" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ194" t="b">
         <v>0</v>
       </c>
@@ -28180,7 +28994,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S195" t="inlineStr"/>
+      <c r="S195" t="n">
+        <v>186670</v>
+      </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr">
         <is>
@@ -28218,7 +29034,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC195" t="n">
         <v>5886.59</v>
@@ -28236,7 +29052,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI195" t="inlineStr"/>
+      <c r="AI195" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ195" t="b">
         <v>0</v>
       </c>
@@ -28324,7 +29142,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S196" t="inlineStr"/>
+      <c r="S196" t="n">
+        <v>186670</v>
+      </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr">
         <is>
@@ -28362,7 +29182,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC196" t="n">
         <v>5886.59</v>
@@ -28380,7 +29200,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI196" t="inlineStr"/>
+      <c r="AI196" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ196" t="b">
         <v>0</v>
       </c>
@@ -28450,7 +29272,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>186670</v>
+      </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr">
         <is>
@@ -28488,7 +29312,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC197" t="n">
         <v>5886.59</v>
@@ -28506,7 +29330,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI197" t="inlineStr"/>
+      <c r="AI197" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ197" t="b">
         <v>0</v>
       </c>
@@ -28594,7 +29420,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S198" t="inlineStr"/>
+      <c r="S198" t="n">
+        <v>186670</v>
+      </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr">
         <is>
@@ -28632,7 +29460,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC198" t="n">
         <v>5886.59</v>
@@ -28650,7 +29478,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI198" t="inlineStr"/>
+      <c r="AI198" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ198" t="b">
         <v>0</v>
       </c>
@@ -28738,7 +29568,9 @@
           <t>C2420</t>
         </is>
       </c>
-      <c r="S199" t="inlineStr"/>
+      <c r="S199" t="n">
+        <v>186670</v>
+      </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr">
         <is>
@@ -28776,7 +29608,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>4794250000</v>
+        <v>4616.27</v>
       </c>
       <c r="AC199" t="n">
         <v>5886.59</v>
@@ -28794,7 +29626,9 @@
           <t>PLKETY000011</t>
         </is>
       </c>
-      <c r="AI199" t="inlineStr"/>
+      <c r="AI199" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ199" t="b">
         <v>0</v>
       </c>
@@ -28864,7 +29698,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>142429</v>
+      </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr">
         <is>
@@ -28902,7 +29738,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC200" t="n">
         <v>1508.53</v>
@@ -28920,7 +29756,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI200" t="inlineStr"/>
+      <c r="AI200" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ200" t="b">
         <v>0</v>
       </c>
@@ -29008,7 +29846,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S201" t="inlineStr"/>
+      <c r="S201" t="n">
+        <v>142429</v>
+      </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr">
         <is>
@@ -29046,7 +29886,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC201" t="n">
         <v>1508.53</v>
@@ -29064,7 +29904,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI201" t="inlineStr"/>
+      <c r="AI201" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ201" t="b">
         <v>0</v>
       </c>
@@ -29152,7 +29994,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S202" t="inlineStr"/>
+      <c r="S202" t="n">
+        <v>142429</v>
+      </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr">
         <is>
@@ -29190,7 +30034,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC202" t="n">
         <v>1508.53</v>
@@ -29208,7 +30052,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI202" t="inlineStr"/>
+      <c r="AI202" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ202" t="b">
         <v>0</v>
       </c>
@@ -29298,7 +30144,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S203" t="inlineStr"/>
+      <c r="S203" t="n">
+        <v>142429</v>
+      </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr">
         <is>
@@ -29336,7 +30184,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC203" t="n">
         <v>1508.53</v>
@@ -29354,7 +30202,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI203" t="inlineStr"/>
+      <c r="AI203" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ203" t="b">
         <v>0</v>
       </c>
@@ -29444,7 +30294,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S204" t="inlineStr"/>
+      <c r="S204" t="n">
+        <v>142429</v>
+      </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr">
         <is>
@@ -29482,7 +30334,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC204" t="n">
         <v>1508.53</v>
@@ -29500,7 +30352,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI204" t="inlineStr"/>
+      <c r="AI204" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ204" t="b">
         <v>0</v>
       </c>
@@ -29588,7 +30442,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S205" t="inlineStr"/>
+      <c r="S205" t="n">
+        <v>142429</v>
+      </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr">
         <is>
@@ -29626,7 +30482,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC205" t="n">
         <v>1508.53</v>
@@ -29644,7 +30500,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI205" t="inlineStr"/>
+      <c r="AI205" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ205" t="b">
         <v>0</v>
       </c>
@@ -29714,7 +30572,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr"/>
+      <c r="S206" t="n">
+        <v>142429</v>
+      </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr">
         <is>
@@ -29752,7 +30612,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC206" t="n">
         <v>1508.53</v>
@@ -29770,7 +30630,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI206" t="inlineStr"/>
+      <c r="AI206" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ206" t="b">
         <v>0</v>
       </c>
@@ -29858,7 +30720,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>142429</v>
+      </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr">
         <is>
@@ -29896,7 +30760,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC207" t="n">
         <v>1508.53</v>
@@ -29914,7 +30778,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI207" t="inlineStr"/>
+      <c r="AI207" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ207" t="b">
         <v>0</v>
       </c>
@@ -30002,7 +30868,9 @@
           <t>G4711</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr"/>
+      <c r="S208" t="n">
+        <v>142429</v>
+      </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr">
         <is>
@@ -30040,7 +30908,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>26281431000</v>
+        <v>26392.16</v>
       </c>
       <c r="AC208" t="n">
         <v>1508.53</v>
@@ -30058,7 +30926,9 @@
           <t>PLEURCH00011</t>
         </is>
       </c>
-      <c r="AI208" t="inlineStr"/>
+      <c r="AI208" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ208" t="b">
         <v>0</v>
       </c>
@@ -30148,7 +31018,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S209" t="inlineStr"/>
+      <c r="S209" t="n">
+        <v>7758</v>
+      </c>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr">
         <is>
@@ -30186,7 +31058,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC209" t="n">
         <v>7708.92</v>
@@ -30204,7 +31076,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI209" t="inlineStr"/>
+      <c r="AI209" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ209" t="b">
         <v>0</v>
       </c>
@@ -30294,7 +31168,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S210" t="inlineStr"/>
+      <c r="S210" t="n">
+        <v>7758</v>
+      </c>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr">
         <is>
@@ -30332,7 +31208,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC210" t="n">
         <v>7708.92</v>
@@ -30350,7 +31226,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI210" t="inlineStr"/>
+      <c r="AI210" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ210" t="b">
         <v>0</v>
       </c>
@@ -30438,7 +31316,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S211" t="inlineStr"/>
+      <c r="S211" t="n">
+        <v>7758</v>
+      </c>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr">
         <is>
@@ -30476,7 +31356,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC211" t="n">
         <v>7708.92</v>
@@ -30494,7 +31374,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI211" t="inlineStr"/>
+      <c r="AI211" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ211" t="b">
         <v>0</v>
       </c>
@@ -30564,7 +31446,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S212" t="inlineStr"/>
+      <c r="S212" t="n">
+        <v>7758</v>
+      </c>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr">
         <is>
@@ -30602,7 +31486,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC212" t="n">
         <v>7708.92</v>
@@ -30620,7 +31504,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI212" t="inlineStr"/>
+      <c r="AI212" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ212" t="b">
         <v>0</v>
       </c>
@@ -30708,7 +31594,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr"/>
+      <c r="S213" t="n">
+        <v>7758</v>
+      </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr">
         <is>
@@ -30746,7 +31634,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC213" t="n">
         <v>7708.92</v>
@@ -30764,7 +31652,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI213" t="inlineStr"/>
+      <c r="AI213" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ213" t="b">
         <v>0</v>
       </c>
@@ -30852,7 +31742,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S214" t="inlineStr"/>
+      <c r="S214" t="n">
+        <v>7758</v>
+      </c>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr">
         <is>
@@ -30890,7 +31782,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC214" t="n">
         <v>7708.92</v>
@@ -30908,7 +31800,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI214" t="inlineStr"/>
+      <c r="AI214" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ214" t="b">
         <v>0</v>
       </c>
@@ -30978,7 +31872,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S215" t="inlineStr"/>
+      <c r="S215" t="n">
+        <v>7758</v>
+      </c>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr">
         <is>
@@ -31016,7 +31912,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC215" t="n">
         <v>7708.92</v>
@@ -31034,7 +31930,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI215" t="inlineStr"/>
+      <c r="AI215" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ215" t="b">
         <v>0</v>
       </c>
@@ -31122,7 +32020,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S216" t="inlineStr"/>
+      <c r="S216" t="n">
+        <v>7758</v>
+      </c>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr">
         <is>
@@ -31160,7 +32060,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC216" t="n">
         <v>7708.92</v>
@@ -31178,7 +32078,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI216" t="inlineStr"/>
+      <c r="AI216" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ216" t="b">
         <v>0</v>
       </c>
@@ -31266,7 +32168,9 @@
           <t>K6419</t>
         </is>
       </c>
-      <c r="S217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>7758</v>
+      </c>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr">
         <is>
@@ -31304,7 +32208,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>1090108000</v>
+        <v>2398.14</v>
       </c>
       <c r="AC217" t="n">
         <v>7708.92</v>
@@ -31322,7 +32226,9 @@
           <t>PLBH00000012</t>
         </is>
       </c>
-      <c r="AI217" t="inlineStr"/>
+      <c r="AI217" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ217" t="b">
         <v>0</v>
       </c>
@@ -31349,6 +32255,2618 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2246</v>
+      </c>
+      <c r="M218" t="n">
+        <v>21434</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P218" t="n">
+        <v>2027</v>
+      </c>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S218" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB218" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ218" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL218" t="n">
+        <v>0.1357142857142857</v>
+      </c>
+      <c r="AM218" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN218" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP218" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ218" t="n">
+        <v>-0.212692101951652</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>2.57430302122667</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0.609039384364211</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S219" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB219" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ219" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN219" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP219" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ219" t="n">
+        <v>-0.212692101951652</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>2.57430302122667</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>0.609039384364211</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S220" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB220" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ220" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN220" t="inlineStr"/>
+      <c r="AO220" t="inlineStr"/>
+      <c r="AP220" t="inlineStr"/>
+      <c r="AQ220" t="inlineStr"/>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr"/>
+      <c r="AT220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB221" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN221" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP221" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ221" t="n">
+        <v>-0.312328765130924</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>2.6972610131342</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>0.829523459164192</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB222" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN222" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP222" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ222" t="n">
+        <v>-0.312328765130924</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>2.6972610131342</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>0.829523459164192</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S223" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB223" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN223" t="inlineStr"/>
+      <c r="AO223" t="inlineStr"/>
+      <c r="AP223" t="inlineStr"/>
+      <c r="AQ223" t="inlineStr"/>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr"/>
+      <c r="AT223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2246</v>
+      </c>
+      <c r="M224" t="n">
+        <v>21434</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P224" t="n">
+        <v>2050</v>
+      </c>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S224" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB224" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL224" t="n">
+        <v>0.03166666666666666</v>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN224" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP224" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ224" t="n">
+        <v>-0.483330528210875</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>2.84133794650491</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>0.92576802127553</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2020</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2246</v>
+      </c>
+      <c r="M225" t="n">
+        <v>21434</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P225" t="n">
+        <v>2050</v>
+      </c>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB225" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL225" t="n">
+        <v>0.03166666666666666</v>
+      </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN225" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP225" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ225" t="n">
+        <v>-0.483330528210875</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>2.84133794650491</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0.92576802127553</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Millenium Bank</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>K6419</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
+        <v>16683</v>
+      </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB226" t="n">
+        <v>3712.63</v>
+      </c>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="n">
+        <v>103913000000</v>
+      </c>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>PLBIG0000016</t>
+        </is>
+      </c>
+      <c r="AI226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN226" t="inlineStr"/>
+      <c r="AO226" t="inlineStr"/>
+      <c r="AP226" t="inlineStr"/>
+      <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
+      <c r="AT226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S227" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB227" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN227" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP227" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ227" t="n">
+        <v>-0.212692101951652</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>2.57430302122667</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>0.609039384364211</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S228" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB228" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN228" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP228" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ228" t="n">
+        <v>-0.212692101951652</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>2.57430302122667</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>0.609039384364211</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S229" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB229" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>slope5</t>
+        </is>
+      </c>
+      <c r="AN229" t="inlineStr"/>
+      <c r="AO229" t="inlineStr"/>
+      <c r="AP229" t="inlineStr"/>
+      <c r="AQ229" t="inlineStr"/>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr"/>
+      <c r="AT229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1451998</v>
+      </c>
+      <c r="M230" t="n">
+        <v>14236</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P230" t="n">
+        <v>2030</v>
+      </c>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S230" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB230" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL230" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN230" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP230" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ230" t="n">
+        <v>-0.312328765130924</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>2.6972610131342</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>0.829523459164192</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S231" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA231" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB231" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN231" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP231" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ231" t="n">
+        <v>-0.312328765130924</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>2.6972610131342</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>0.829523459164192</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S232" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB232" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF232" t="inlineStr"/>
+      <c r="AG232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>slope15</t>
+        </is>
+      </c>
+      <c r="AN232" t="inlineStr"/>
+      <c r="AO232" t="inlineStr"/>
+      <c r="AP232" t="inlineStr"/>
+      <c r="AQ232" t="inlineStr"/>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr"/>
+      <c r="AT232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>S1S2</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S233" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB233" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF233" t="inlineStr"/>
+      <c r="AG233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN233" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP233" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ233" t="n">
+        <v>-0.483330528210875</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>2.84133794650491</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>0.92576802127553</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S234" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA234" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB234" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF234" t="inlineStr"/>
+      <c r="AG234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN234" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP234" t="inlineStr">
+        <is>
+          <t>Emissions|Kyoto Gases</t>
+        </is>
+      </c>
+      <c r="AQ234" t="n">
+        <v>-0.483330528210875</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2.84133794650491</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>0.92576802127553</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>S1S2S3</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>C2824</t>
+        </is>
+      </c>
+      <c r="S235" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AB235" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AC235" t="inlineStr"/>
+      <c r="AD235" t="inlineStr"/>
+      <c r="AE235" t="n">
+        <v>2599000000</v>
+      </c>
+      <c r="AF235" t="inlineStr"/>
+      <c r="AG235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>PLFAMUR00012</t>
+        </is>
+      </c>
+      <c r="AI235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK235" t="inlineStr"/>
+      <c r="AL235" t="inlineStr"/>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>slope30</t>
+        </is>
+      </c>
+      <c r="AN235" t="inlineStr"/>
+      <c r="AO235" t="inlineStr"/>
+      <c r="AP235" t="inlineStr"/>
+      <c r="AQ235" t="inlineStr"/>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr"/>
+      <c r="AT235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/clean/output_data.xlsx
+++ b/data/clean/output_data.xlsx
@@ -2022,10 +2022,10 @@
         <v>2021</v>
       </c>
       <c r="L11" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="M11" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
@@ -2486,10 +2486,10 @@
         <v>2021</v>
       </c>
       <c r="L14" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="M14" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
@@ -3789,23 +3789,23 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.3</v>
+        <v>0.171</v>
       </c>
       <c r="K23" t="n">
         <v>2020</v>
       </c>
       <c r="L23" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="M23" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>0.03</v>
+        <v>0.0171</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3918,13 +3918,13 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="24">
@@ -4250,10 +4250,10 @@
         <v>2020</v>
       </c>
       <c r="L26" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="M26" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
@@ -9543,7 +9543,9 @@
         <v>72504413</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>24722424.4</v>
+      </c>
       <c r="O62" t="n">
         <v>2020</v>
       </c>
@@ -10399,14 +10401,14 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.1</v>
+        <v>0.265</v>
       </c>
       <c r="K68" t="n">
         <v>2020</v>
@@ -10502,7 +10504,7 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>0.01</v>
+        <v>0.0265</v>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
@@ -10530,13 +10532,13 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
       </c>
       <c r="AV68" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="69">
@@ -11312,10 +11314,10 @@
         <v>2019</v>
       </c>
       <c r="L74" t="n">
-        <v>11816</v>
+        <v>16399</v>
       </c>
       <c r="M74" t="n">
-        <v>88906</v>
+        <v>97112</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
@@ -12612,10 +12614,10 @@
         <v>2020</v>
       </c>
       <c r="L83" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M83" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="n">
@@ -13488,10 +13490,10 @@
         <v>2020</v>
       </c>
       <c r="L89" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M89" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
@@ -13660,10 +13662,10 @@
         <v>2020</v>
       </c>
       <c r="L90" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="M90" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
@@ -15286,10 +15288,10 @@
         <v>2019</v>
       </c>
       <c r="L101" t="n">
-        <v>2852457</v>
+        <v>2920571</v>
       </c>
       <c r="M101" t="n">
-        <v>597284</v>
+        <v>533032</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
@@ -16160,10 +16162,10 @@
         <v>2019</v>
       </c>
       <c r="L107" t="n">
-        <v>2852457</v>
+        <v>2920571</v>
       </c>
       <c r="M107" t="n">
-        <v>597284</v>
+        <v>533032</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
@@ -19650,13 +19652,13 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.3769707327494125</v>
+        <v>0.376696352841391</v>
       </c>
       <c r="K131" t="n">
         <v>2020</v>
       </c>
       <c r="L131" t="n">
-        <v>7326000</v>
+        <v>7396000</v>
       </c>
       <c r="M131" t="n">
         <v>2036000</v>
@@ -19744,7 +19746,7 @@
         </is>
       </c>
       <c r="AL131" t="n">
-        <v>0.03769707327494125</v>
+        <v>0.0376696352841391</v>
       </c>
       <c r="AM131" t="inlineStr">
         <is>
@@ -20959,7 +20961,7 @@
         <v>5271.27</v>
       </c>
       <c r="M140" t="n">
-        <v>1506687</v>
+        <v>6025.03</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="n">
@@ -32300,10 +32302,10 @@
         <v>2020</v>
       </c>
       <c r="L218" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M218" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="n">
@@ -33164,10 +33166,10 @@
         <v>2020</v>
       </c>
       <c r="L224" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M224" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="n">
@@ -33334,10 +33336,10 @@
         <v>2020</v>
       </c>
       <c r="L225" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="M225" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="n">

--- a/data/clean/output_data.xlsx
+++ b/data/clean/output_data.xlsx
@@ -10408,7 +10408,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="K68" t="n">
         <v>2020</v>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>0.0265</v>
+        <v>0.026</v>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
@@ -10532,13 +10532,13 @@
         <v>0.829523459164192</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="69">

--- a/data/clean/output_data.xlsx
+++ b/data/clean/output_data.xlsx
@@ -22685,17 +22685,35 @@
           <t>Absolute</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="L152" t="n">
+        <v>18441041.57</v>
+      </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P152" t="n">
+        <v>2050</v>
+      </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
         <is>
@@ -22771,7 +22789,9 @@
           <t>Emissions|CO2|Energy and Industrial Processes</t>
         </is>
       </c>
-      <c r="AL152" t="inlineStr"/>
+      <c r="AL152" t="n">
+        <v>0.0296875</v>
+      </c>
       <c r="AM152" t="inlineStr">
         <is>
           <t>slope30</t>
@@ -22798,13 +22818,13 @@
         <v>0.9005513256019539</v>
       </c>
       <c r="AT152" t="n">
-        <v>3.2</v>
+        <v>1.41</v>
       </c>
       <c r="AU152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV152" t="n">
-        <v>3.2</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="153">
